--- a/results/06_baseline_unet3d_masks_bbox.xlsx
+++ b/results/06_baseline_unet3d_masks_bbox.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t xml:space="preserve">Initial</t>
   </si>
@@ -40,31 +40,49 @@
     <t xml:space="preserve">H.D</t>
   </si>
   <si>
+    <t xml:space="preserve">JohnDoe_ANON87212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON12304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON25911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON34438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON47965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON56370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON56995</t>
+  </si>
+  <si>
     <t xml:space="preserve">JaneDoe_ANON69091</t>
   </si>
   <si>
-    <t xml:space="preserve">JaneDoe_ANON25911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON12304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON56370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON56995</t>
-  </si>
-  <si>
     <t xml:space="preserve">JaneDoe_ANON82950</t>
   </si>
   <si>
+    <t xml:space="preserve">JaneDoe_ANON83544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON10507</t>
+  </si>
+  <si>
     <t xml:space="preserve">JohnDoe_ANON11762</t>
   </si>
   <si>
-    <t xml:space="preserve">JohnDoe_ANON10507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON34438</t>
+    <t xml:space="preserve">JohnDoe_ANON13231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON15323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON15860</t>
   </si>
   <si>
     <t xml:space="preserve">JohnDoe_ANON21673</t>
@@ -73,175 +91,160 @@
     <t xml:space="preserve">JohnDoe_ANON22228</t>
   </si>
   <si>
-    <t xml:space="preserve">JohnDoe_ANON13231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON15323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON15860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON83544</t>
-  </si>
-  <si>
     <t xml:space="preserve">JohnDoe_ANON23001</t>
   </si>
   <si>
+    <t xml:space="preserve">JohnDoe_ANON23808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON24065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON27183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON27373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON27417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON28177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON29513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON32161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON35169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON36736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON39011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON39080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON42529</t>
+  </si>
+  <si>
     <t xml:space="preserve">JohnDoe_ANON44625</t>
   </si>
   <si>
-    <t xml:space="preserve">JohnDoe_ANON27417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON23808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON39011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON32161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON42529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON36736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON29513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON39080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON27183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON24065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON27373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON28177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON35169</t>
+    <t xml:space="preserve">JohnDoe_ANON45396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON45696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON46160</t>
   </si>
   <si>
     <t xml:space="preserve">JohnDoe_ANON50337</t>
   </si>
   <si>
-    <t xml:space="preserve">JohnDoe_ANON45396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON45696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON46160</t>
+    <t xml:space="preserve">JohnDoe_ANON51834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON53833</t>
   </si>
   <si>
     <t xml:space="preserve">JohnDoe_ANON55098</t>
   </si>
   <si>
+    <t xml:space="preserve">JohnDoe_ANON55215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON55240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON55831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON57371</t>
+  </si>
+  <si>
     <t xml:space="preserve">JohnDoe_ANON59591</t>
   </si>
   <si>
+    <t xml:space="preserve">JohnDoe_ANON61677</t>
+  </si>
+  <si>
     <t xml:space="preserve">JohnDoe_ANON62642</t>
   </si>
   <si>
-    <t xml:space="preserve">JohnDoe_ANON55215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON55240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON51834</t>
-  </si>
-  <si>
     <t xml:space="preserve">JohnDoe_ANON64482</t>
   </si>
   <si>
-    <t xml:space="preserve">JohnDoe_ANON55831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON53833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON57371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON61677</t>
-  </si>
-  <si>
     <t xml:space="preserve">JohnDoe_ANON65060</t>
   </si>
   <si>
+    <t xml:space="preserve">JohnDoe_ANON70417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON72295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON74328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON76802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON77296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON78721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON80520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON81710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON83160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON84994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON86311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON87639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON87883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON87928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON91519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON92476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON92634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON96978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON98767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON98854</t>
+  </si>
+  <si>
     <t xml:space="preserve">JohnDoe_ANON99601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON87928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON96978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON92476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON91519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON87212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON98854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON98767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON70417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON84994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON72295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON86311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON78721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON80520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON83160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON87639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON74328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON81710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON77296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON76802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON87883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON92634</t>
   </si>
   <si>
     <t xml:space="preserve">Min</t>
@@ -384,10 +387,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,22 +454,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.356239703189662</v>
+        <v>0.108112367763726</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>61.0081961706786</v>
+        <v>133.600149700515</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.814630441391255</v>
+        <v>0.871233239437725</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>22.7596133534821</v>
+        <v>33.4215499341368</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.898037049962403</v>
+        <v>0.900103946018026</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>20.712315177208</v>
+        <v>32.0156211871642</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,22 +477,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.103255366973385</v>
+        <v>0.266148556829346</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>104.752088284673</v>
+        <v>77.614431647729</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.796818243331779</v>
+        <v>0.867818198520551</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>26.1916017074176</v>
+        <v>22.4499443206436</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.885618065953608</v>
+        <v>0.928343111421009</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>23.43074902772</v>
+        <v>14.1774468787578</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,22 +500,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.266148556829346</v>
+        <v>0.103255366973385</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>77.614431647729</v>
+        <v>104.752088284673</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.867818198520551</v>
+        <v>0.796818243331779</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>22.4499443206436</v>
+        <v>26.1916017074176</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.928343111421009</v>
+        <v>0.885618065953608</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>14.1774468787578</v>
+        <v>23.43074902772</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,22 +523,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.0573992549187112</v>
+        <v>0.157807564981701</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>87.9374777896205</v>
+        <v>120.037494142455</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.790395253225726</v>
+        <v>0.779860431292728</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>30.347981810987</v>
+        <v>42.154477816716</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.915729293728982</v>
+        <v>0.903708268382095</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>18.0554700852678</v>
+        <v>28.3548937575156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,22 +546,22 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.0124107023155153</v>
+        <v>0.636375330922107</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>102.083299319722</v>
+        <v>37.0135110466435</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.835660739814908</v>
+        <v>0.868905168885733</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>18.6010752377383</v>
+        <v>22.9128784747792</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.902686566533534</v>
+        <v>0.919166386606116</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>14.8660687473185</v>
+        <v>18.3847763108502</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,22 +569,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.0297668822954857</v>
+        <v>0.0573992549187112</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>108.820953864594</v>
+        <v>87.9374777896205</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.860534557057895</v>
+        <v>0.790395253225726</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>34.0881210981186</v>
+        <v>30.347981810987</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.90770058038689</v>
+        <v>0.915729293728982</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>23.3666428910958</v>
+        <v>18.0554700852678</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,22 +592,22 @@
         <v>12</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.0126147712013121</v>
+        <v>0.0124107023155153</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>133.337916587893</v>
+        <v>102.083299319722</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.824522890283879</v>
+        <v>0.84801474557878</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>36.0138862107382</v>
+        <v>17.9443584449264</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.921726983186288</v>
+        <v>0.902639343207444</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>17.7482393492988</v>
+        <v>14.8660687473185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,22 +615,22 @@
         <v>13</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.104674600999976</v>
+        <v>0.356239703189662</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>94.451045520947</v>
+        <v>61.0081961706786</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.847775529415965</v>
+        <v>0.814630441391255</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>25.4558441227157</v>
+        <v>22.7596133534821</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.913502034956011</v>
+        <v>0.898037049962403</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>16.4924225024706</v>
+        <v>20.712315177208</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,22 +638,22 @@
         <v>14</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.157807564981701</v>
+        <v>0.0297668822954857</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>120.037494142455</v>
+        <v>108.820953864594</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.780646818545953</v>
+        <v>0.718337073767097</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>42.2965719651132</v>
+        <v>85.5686858611256</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.903588350181989</v>
+        <v>0.739374676075919</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>28.6006992921502</v>
+        <v>84.7230783199005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,22 +661,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.217834813085246</v>
+        <v>0.0309669812009118</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>92.2225568936364</v>
+        <v>167.014969388974</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.793306920457111</v>
+        <v>0.879339772131359</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>26.2868788561898</v>
+        <v>26.343879744639</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.887762166259233</v>
+        <v>0.917684137011213</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>27.0924343682881</v>
+        <v>20.6155281280883</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,22 +684,22 @@
         <v>16</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>0.104674600999976</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>133.240384268434</v>
+        <v>94.451045520947</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.708479425315004</v>
+        <v>0.847775529415965</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>33.7194306001747</v>
+        <v>25.4558441227157</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.788140315765687</v>
+        <v>0.913502034956011</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>32.2800247831379</v>
+        <v>16.4924225024706</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,22 +707,22 @@
         <v>17</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.0142703295893339</v>
+        <v>0.0126147712013121</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>109.62663909835</v>
+        <v>133.337916587893</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.82812085559471</v>
+        <v>0.824522890283879</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>20.712315177208</v>
+        <v>36.0138862107382</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.917579182124437</v>
+        <v>0.921726983186288</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>17.0293863659264</v>
+        <v>17.7482393492988</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,22 +730,22 @@
         <v>18</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>0.0142703295893339</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>144.727329830962</v>
+        <v>109.62663909835</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.838974409652192</v>
+        <v>0.82812085559471</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>22.1585198061603</v>
+        <v>20.712315177208</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.901049575940218</v>
+        <v>0.917579182124437</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>15.3622914957372</v>
+        <v>17.0293863659264</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,22 +753,22 @@
         <v>19</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.0565752150656887</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>104.947605975553</v>
+        <v>144.727329830962</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.873609680925045</v>
+        <v>0.838974409652192</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>19.9248588451713</v>
+        <v>22.1585198061603</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.938642583028945</v>
+        <v>0.901049575940218</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>15.1327459504216</v>
+        <v>15.3622914957372</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.0309669812009118</v>
+        <v>0.0565752150656887</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>167.014969388974</v>
+        <v>104.947605975553</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.879339772131359</v>
+        <v>0.87360363330037</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>26.343879744639</v>
+        <v>19.9248588451713</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.917684137011213</v>
+        <v>0.938634011989905</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>20.6155281280883</v>
+        <v>15.1327459504216</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,22 +799,22 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.681283344230518</v>
+        <v>0.217834813085246</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>51.4295634824952</v>
+        <v>92.2225568936364</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.83765950380388</v>
+        <v>0.793306920457111</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>33.6154726279432</v>
+        <v>26.2868788561898</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.919156930484546</v>
+        <v>0.887762166259233</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>21.4009345590327</v>
+        <v>27.0924343682881</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,22 +822,22 @@
         <v>22</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.00927782223616268</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>113.745329574449</v>
+        <v>133.240384268434</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.770236030397854</v>
+        <v>0.708479425315004</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>27.367864366808</v>
+        <v>33.7194306001747</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.899570347616257</v>
+        <v>0.788140315765687</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>17.1172427686237</v>
+        <v>32.2800247831379</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,22 +845,22 @@
         <v>23</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.229054344446514</v>
+        <v>0.681283344230518</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>102.425582741813</v>
+        <v>51.4295634824952</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.860367863254309</v>
+        <v>0.83765950380388</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>20.3224014329016</v>
+        <v>33.6154726279432</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.929036433163524</v>
+        <v>0.919156930484546</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>16.8819430161341</v>
+        <v>21.4009345590327</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,16 +874,16 @@
         <v>126.431799797361</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.863785537575899</v>
+        <v>0.870749951915256</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>27.5317997958724</v>
+        <v>29</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.90339099355593</v>
+        <v>0.901474696174704</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>24.0624188310319</v>
+        <v>24.8394846967484</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,22 +891,22 @@
         <v>25</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.283766654731055</v>
+        <v>0.177789926279852</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>106.343782140753</v>
+        <v>107.307968017291</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.76972538513061</v>
+        <v>0.752470666791494</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>30.2820078594534</v>
+        <v>32.9393381840012</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.907811149382323</v>
+        <v>0.859815213828708</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>19.0262975904405</v>
+        <v>34.322004603461</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,22 +914,22 @@
         <v>26</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.567903420673844</v>
+        <v>0.45217860647033</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>55.4707129934347</v>
+        <v>64.5677938294317</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.838348269083459</v>
+        <v>0.821903058549017</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>22.8910462845192</v>
+        <v>32.5729949498047</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.903759024341949</v>
+        <v>0.895663152475066</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>21.1187120819429</v>
+        <v>20.976176963403</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,22 +937,22 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.357772117446522</v>
+        <v>0.00446262383038543</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>84.0059521700695</v>
+        <v>121.89339604753</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.775153020863672</v>
+        <v>0.864313470599229</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>41.0121933088197</v>
+        <v>16.7630546142402</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.862671186767485</v>
+        <v>0.93723679078365</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>30.2985148150862</v>
+        <v>19.6214168703486</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,22 +960,22 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.0233832898041961</v>
+        <v>0.229054344446514</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>135.550728511506</v>
+        <v>102.425582741813</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.823904312024086</v>
+        <v>0.851883376338654</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>32.155870381627</v>
+        <v>21.095023109729</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.87895795542305</v>
+        <v>0.92807325848495</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>29.8998327754521</v>
+        <v>17.0293863659264</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,22 +983,22 @@
         <v>29</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.425517781238418</v>
+        <v>0.338209542821814</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>62.3217458035315</v>
+        <v>84.2436941260294</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.868902647208508</v>
+        <v>0.899593800445237</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>21.6564078277077</v>
+        <v>26.5894716006167</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.911187911066253</v>
+        <v>0.942063533460198</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>18</v>
+        <v>19.8746069143518</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,22 +1006,22 @@
         <v>30</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.149268258451093</v>
+        <v>0.425517781238418</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>131.244047484067</v>
+        <v>62.3217458035315</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.845650084479672</v>
+        <v>0.868902647208508</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>35.7351367704113</v>
+        <v>21.6564078277077</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.897866437359555</v>
+        <v>0.911187911066253</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>26.3248931621764</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,22 +1029,22 @@
         <v>31</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.45217860647033</v>
+        <v>0.567903420673844</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>64.5677938294317</v>
+        <v>55.4707129934347</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.837355427754224</v>
+        <v>0.838348269083459</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>30.886890422961</v>
+        <v>22.8910462845192</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.905615905157754</v>
+        <v>0.903759024341949</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>16.7928556237467</v>
+        <v>21.1187120819429</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,22 +1052,22 @@
         <v>32</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.177789926279852</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>107.307968017291</v>
+        <v>150.973507609779</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.752470666791494</v>
+        <v>0.79085602881186</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>32.9393381840012</v>
+        <v>45.5192267069642</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.859815213828708</v>
+        <v>0.871121835967437</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>34.322004603461</v>
+        <v>37.5366487582469</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,22 +1075,22 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.00446262383038543</v>
+        <v>0.0233832898041961</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>121.89339604753</v>
+        <v>135.550728511506</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.864313470599229</v>
+        <v>0.823904312024086</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>16.7630546142402</v>
+        <v>32.155870381627</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.93723679078365</v>
+        <v>0.87895795542305</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>19.6214168703486</v>
+        <v>29.8998327754521</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,22 +1098,22 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.338209542821814</v>
+        <v>0.283766654731055</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>84.2436941260294</v>
+        <v>106.343782140753</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.899593800445237</v>
+        <v>0.76972538513061</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>26.5894716006167</v>
+        <v>30.2820078594534</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.942063533460198</v>
+        <v>0.907811149382323</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>19.8746069143518</v>
+        <v>19.0262975904405</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,22 +1121,22 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>0.149268258451093</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>150.973507609779</v>
+        <v>131.244047484067</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.79085602881186</v>
+        <v>0.845650084479672</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>45.5192267069642</v>
+        <v>35.7351367704113</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.871121835967437</v>
+        <v>0.897866437359555</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>37.5366487582469</v>
+        <v>26.3248931621764</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,22 +1144,22 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.175428643332733</v>
+        <v>0.357772117446522</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>96.1301201497221</v>
+        <v>84.0059521700695</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.809618739097932</v>
+        <v>0.775153020863672</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>30.8220700148449</v>
+        <v>41.0121933088197</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.93195023396487</v>
+        <v>0.862671186767485</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>15.52417469626</v>
+        <v>30.2985148150862</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,22 +1167,22 @@
         <v>37</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.346490359163313</v>
+        <v>0.00927782223616268</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>70.3206939669967</v>
+        <v>113.745329574449</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.85468369156805</v>
+        <v>0.763406152234918</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>19</v>
+        <v>28.7054001888146</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.918193140120993</v>
+        <v>0.899154174554903</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>16.583123951777</v>
+        <v>17.0880074906351</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,22 +1190,22 @@
         <v>38</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1.04848436342845E-005</v>
+        <v>0.346490359163313</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>133.895481626528</v>
+        <v>70.3206939669967</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.809733634352879</v>
+        <v>0.85468369156805</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>40.4969134626332</v>
+        <v>19</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.868556559006092</v>
+        <v>0.918193140120993</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>31.8433666561813</v>
+        <v>16.583123951777</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,22 +1213,22 @@
         <v>39</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.144188158474021</v>
+        <v>1.04848436342845E-005</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>115.160757204874</v>
+        <v>133.895481626528</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.825076266508404</v>
+        <v>0.809733634352879</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>21.3775583264319</v>
+        <v>40.4969134626332</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.908375640240589</v>
+        <v>0.868556559006092</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>16.5529453572468</v>
+        <v>31.8433666561813</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,22 +1236,22 @@
         <v>40</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.342517102791411</v>
+        <v>0.144188158474021</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>75.7693869580585</v>
+        <v>115.160757204874</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.813654630828414</v>
+        <v>0.816643717690257</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>30.6757233003559</v>
+        <v>23.7697286480094</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.898926760958713</v>
+        <v>0.905016410477361</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>24.5356882927706</v>
+        <v>17.2336879396141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,22 +1259,22 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.548360881352972</v>
+        <v>0.175428643332733</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>57.7840808527747</v>
+        <v>96.1301201497221</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.855786756116197</v>
+        <v>0.809618739097932</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>24.2074368738204</v>
+        <v>30.8220700148449</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.886398015059768</v>
+        <v>0.93195023396487</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>24.3721152139079</v>
+        <v>15.52417469626</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,22 +1282,22 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.13224218557716</v>
+        <v>0.4314516757099</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>92.4932429964481</v>
+        <v>87.3670418407308</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.855154783334843</v>
+        <v>0.85007172177683</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>17.6635217326557</v>
+        <v>21.9317121994613</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.888596766348938</v>
+        <v>0.887451976420159</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>18.2482875908947</v>
+        <v>19.2613602842582</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,22 +1305,22 @@
         <v>43</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.552167423291218</v>
+        <v>0.183119659678796</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>57.3236425918661</v>
+        <v>89.1403387922662</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.8121928439048</v>
+        <v>0.739806119704117</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>31.2409987036266</v>
+        <v>58.3952052826257</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.86645688303078</v>
+        <v>0.826126907043926</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>24.3926218353009</v>
+        <v>48.2700735445887</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,22 +1328,22 @@
         <v>44</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.387671729569927</v>
+        <v>0.342517102791411</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>113.639781766774</v>
+        <v>75.7693869580585</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.881298819152958</v>
+        <v>0.813654630828414</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>34.0147027033899</v>
+        <v>30.6757233003559</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.893294080649867</v>
+        <v>0.898926760958713</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>29.0344622819159</v>
+        <v>24.5356882927706</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,22 +1351,22 @@
         <v>45</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.4314516757099</v>
+        <v>0.552167423291218</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>87.3670418407308</v>
+        <v>57.3236425918661</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.85007172177683</v>
+        <v>0.82120087904262</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>21.9317121994613</v>
+        <v>28.1780056072107</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.887451976420159</v>
+        <v>0.884304197352006</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>19.2613602842582</v>
+        <v>20.3469899493758</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,22 +1374,22 @@
         <v>46</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>0.387671729569927</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>146.700374914313</v>
+        <v>113.639781766774</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.835576933954108</v>
+        <v>0.881298819152958</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>21.6333076527839</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.906100837257124</v>
+        <v>0.893294080649867</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>13.6014705087354</v>
+        <v>29.0344622819159</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,22 +1420,22 @@
         <v>48</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.183119659678796</v>
+        <v>0.105003698967253</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>89.1403387922662</v>
+        <v>147.244694301696</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.74704678285108</v>
+        <v>0.647892539489331</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>57.5934023999277</v>
+        <v>50.9313263129874</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.833536432351254</v>
+        <v>0.825640759506418</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>46.2709412050371</v>
+        <v>53.5723809439155</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,22 +1443,22 @@
         <v>49</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.105003698967253</v>
+        <v>0.548360881352972</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>147.244694301696</v>
+        <v>57.7840808527747</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.647892539489331</v>
+        <v>0.850004493358816</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>50.9313263129874</v>
+        <v>29.1376045686669</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.825640759506418</v>
+        <v>0.886136310607447</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>53.5723809439155</v>
+        <v>26.3058928759318</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,22 +1489,22 @@
         <v>51</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.184026456749132</v>
+        <v>0.13224218557716</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>95.6765383989199</v>
+        <v>92.4932429964481</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.806047684096756</v>
+        <v>0.855154783334843</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>36.4005494464026</v>
+        <v>17.6635217326557</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.886749106031928</v>
+        <v>0.888596766348938</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>27.459060435492</v>
+        <v>18.2482875908947</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>117.9618582424</v>
+        <v>146.700374914313</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.752553946740056</v>
+        <v>0.841457116498009</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>23.1948270094864</v>
+        <v>20.8566536146142</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.887600536361647</v>
+        <v>0.905556493822014</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>19.8746069143518</v>
+        <v>13.6014705087354</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,22 +1535,22 @@
         <v>53</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.0601792944072513</v>
+        <v>0.184026456749132</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>104.809350727881</v>
+        <v>95.6765383989199</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.8653730268667</v>
+        <v>0.804501288504675</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>18.0554700852678</v>
+        <v>36.8103246386119</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0.943757428850501</v>
+        <v>0.884054134185076</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>13.1529464379659</v>
+        <v>28.2311884269862</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,22 +1558,22 @@
         <v>54</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
+        <v>0.0364112917935009</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>207.800384985206</v>
+        <v>96.8607247546703</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.583864318056969</v>
+        <v>0.819495083855745</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>66.5807780068692</v>
+        <v>28.1069386451104</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0.708381129111178</v>
+        <v>0.87187091518493</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>63.9609255717895</v>
+        <v>26.4764045897474</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,22 +1581,22 @@
         <v>55</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.0600900098380006</v>
+        <v>0.160210641749103</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>121.40840168621</v>
+        <v>108.604788108076</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.828147133995716</v>
+        <v>0.822798812876183</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>25.6709953059869</v>
+        <v>26.4196896272458</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0.889153482639727</v>
+        <v>0.880236819885815</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>23.5372045918796</v>
+        <v>19.8746069143518</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,22 +1604,22 @@
         <v>56</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.427433432685638</v>
+        <v>0.0167793762259721</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>71.3652576538472</v>
+        <v>149.147577922003</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.871657716125912</v>
+        <v>0.826625426384203</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>36.6196668472011</v>
+        <v>22.0227155455452</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0.942460678091124</v>
+        <v>0.911732479342443</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>32.3419232575925</v>
+        <v>14.4913767461894</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,22 +1627,22 @@
         <v>57</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.108112367763726</v>
+        <v>0.302045844224313</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>133.600149700515</v>
+        <v>72.4016574395918</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.871233239437725</v>
+        <v>0.850845363081075</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>33.4215499341368</v>
+        <v>26</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0.900103946018026</v>
+        <v>0.899701274739212</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>32.0156211871642</v>
+        <v>23.7907545067406</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,22 +1650,22 @@
         <v>58</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.410643296082143</v>
+        <v>0.0496208376665865</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>60.4235053600832</v>
+        <v>99.9449848666755</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.879660431739457</v>
+        <v>0.829146646465485</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>46.1410879802373</v>
+        <v>22.7596133534821</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0.918145959951097</v>
+        <v>0.911491861901106</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>44.0227214061103</v>
+        <v>18.3575597506858</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,22 +1673,22 @@
         <v>59</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.309745642279525</v>
+        <v>0.359611591630902</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>101.118742080783</v>
+        <v>71.9513724677994</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.88806831435149</v>
+        <v>0.803928656096983</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>16.4924225024706</v>
+        <v>26</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0.938964295982862</v>
+        <v>0.918344547760898</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>17</v>
+        <v>16.5227116418583</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,22 +1696,22 @@
         <v>60</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.0364112917935009</v>
+        <v>0.423169867804234</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>96.8607247546703</v>
+        <v>75.0333259292163</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.819495083855745</v>
+        <v>0.712903005205579</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>28.1069386451104</v>
+        <v>32.1403173599764</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0.87187091518493</v>
+        <v>0.872104160012735</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>26.4764045897474</v>
+        <v>28.8617393793236</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,22 +1719,22 @@
         <v>61</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1.38453018275798E-005</v>
+        <v>0.20522052781232</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>152.269497930479</v>
+        <v>91.3509715328742</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.752804411229655</v>
+        <v>0.72808984011505</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>31.2089730686545</v>
+        <v>23.2808934536456</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0.914231226318806</v>
+        <v>0.927833393467586</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>20.6639783197718</v>
+        <v>22.2261107708929</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,22 +1742,22 @@
         <v>62</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.160210641749103</v>
+        <v>0.152562439648235</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>108.604788108076</v>
+        <v>111.772089539384</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.822798812876183</v>
+        <v>0.793643852022293</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>26.4196896272458</v>
+        <v>29.2061637330205</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0.880236819885815</v>
+        <v>0.865538935877672</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>19.8746069143518</v>
+        <v>27.9642629082191</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,22 +1765,22 @@
         <v>63</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.242198481201484</v>
+        <v>1.38453018275798E-005</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>60.8851377595551</v>
+        <v>152.269497930479</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.795887148825028</v>
+        <v>0.752804411229655</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>34.6698716467194</v>
+        <v>31.2089730686545</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0.910437397957742</v>
+        <v>0.914231226318806</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>17.7482393492988</v>
+        <v>20.6639783197718</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,22 +1788,22 @@
         <v>64</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.359611591630902</v>
+        <v>0.242198481201484</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>71.9513724677994</v>
+        <v>60.8851377595551</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.803928656096983</v>
+        <v>0.795887148825028</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>26</v>
+        <v>34.6698716467194</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0.918344547760898</v>
+        <v>0.910437397957742</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>16.5227116418583</v>
+        <v>17.7482393492988</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,22 +1811,22 @@
         <v>65</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.423169867804234</v>
+        <v>0.513543782882742</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>75.0333259292163</v>
+        <v>57.8791845139511</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.716303175391297</v>
+        <v>0.578595195396235</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>32.3882694814033</v>
+        <v>63.4113554499508</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0.871839584348109</v>
+        <v>0.674096313000832</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>29.2745623366089</v>
+        <v>66.2947961758689</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,22 +1834,22 @@
         <v>66</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.152562439648235</v>
+        <v>0.0568413958623849</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>111.772089539384</v>
+        <v>108.98164983152</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.793643852022293</v>
+        <v>0.853381203353476</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>29.2061637330205</v>
+        <v>16.8226038412607</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0.865538935877672</v>
+        <v>0.93540929885954</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>27.9642629082191</v>
+        <v>12.8840987267251</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,22 +1857,22 @@
         <v>67</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.513543782882742</v>
+        <v>0.0601792944072513</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>57.8791845139511</v>
+        <v>104.809350727881</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0.578595195396235</v>
+        <v>0.861328769619531</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>63.4113554499508</v>
+        <v>19.2093727122986</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0.674096313000832</v>
+        <v>0.943557681297948</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>66.2947961758689</v>
+        <v>13.2664991614216</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,22 +1880,22 @@
         <v>68</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.0167793762259721</v>
+        <v>0.427433432685638</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>149.147577922003</v>
+        <v>71.3652576538472</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.826625426384203</v>
+        <v>0.871657716125912</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>22.0227155455452</v>
+        <v>36.6196668472011</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.911732479342443</v>
+        <v>0.942460678091124</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>14.4913767461894</v>
+        <v>32.3419232575925</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,22 +1903,22 @@
         <v>69</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.20522052781232</v>
+        <v>0.0600900098380006</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>91.3509715328742</v>
+        <v>121.40840168621</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.72808984011505</v>
+        <v>0.828147133995716</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>23.2808934536456</v>
+        <v>25.6709953059869</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0.927833393467586</v>
+        <v>0.889153482639727</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>22.2261107708929</v>
+        <v>23.5372045918796</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,22 +1926,22 @@
         <v>70</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.0496208376665865</v>
+        <v>0.564746917702675</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>99.9449848666755</v>
+        <v>46.4435140789325</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.829146646465485</v>
+        <v>0.838672131859855</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>22.7596133534821</v>
+        <v>45.3982378512647</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.911491861901106</v>
+        <v>0.899972508347264</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>18.3575597506858</v>
+        <v>41.6773319683494</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,22 +1949,22 @@
         <v>71</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.302045844224313</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>72.4016574395918</v>
+        <v>207.800384985206</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.853166970821168</v>
+        <v>0.583864318056969</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>25</v>
+        <v>66.5807780068692</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.904538089266541</v>
+        <v>0.708381129111178</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>22.7376340018041</v>
+        <v>63.9609255717895</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,22 +1972,22 @@
         <v>72</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.0568413958623849</v>
+        <v>0.309745642279525</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>108.98164983152</v>
+        <v>101.118742080783</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0.853381203353476</v>
+        <v>0.888600605042458</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>16.8226038412607</v>
+        <v>16.4924225024706</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.93540929885954</v>
+        <v>0.938728522328615</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>12.8840987267251</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,22 +1995,22 @@
         <v>73</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.564746917702675</v>
+        <v>0.410643296082143</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>46.4435140789325</v>
+        <v>60.4235053600832</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0.838672131859855</v>
+        <v>0.879801049429733</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>45.3982378512647</v>
+        <v>46.357307945997</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0.899972508347264</v>
+        <v>0.917620660225045</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>41.6773319683494</v>
+        <v>44.5533388198909</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,28 +2018,22 @@
         <v>74</v>
       </c>
       <c r="B72" s="0" t="n">
-        <f aca="false">MIN(B4:B71)</f>
         <v>0</v>
       </c>
       <c r="C72" s="0" t="n">
-        <f aca="false">MIN(C4:C71)</f>
-        <v>46.4435140789325</v>
+        <v>117.9618582424</v>
       </c>
       <c r="D72" s="0" t="n">
-        <f aca="false">MIN(D4:D71)</f>
-        <v>0.578595195396235</v>
+        <v>0.759660009344772</v>
       </c>
       <c r="E72" s="0" t="n">
-        <f aca="false">MIN(E4:E71)</f>
-        <v>16.4924225024706</v>
+        <v>24.2280828791714</v>
       </c>
       <c r="F72" s="0" t="n">
-        <f aca="false">MIN(F4:F71)</f>
-        <v>0.674096313000832</v>
+        <v>0.8874012202807</v>
       </c>
       <c r="G72" s="0" t="n">
-        <f aca="false">MIN(G4:G71)</f>
-        <v>12.8840987267251</v>
+        <v>14.4913767461894</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,86 +2041,86 @@
         <v>75</v>
       </c>
       <c r="B73" s="0" t="n">
-        <f aca="false">MAX(B4:B71)</f>
-        <v>0.681283344230518</v>
+        <f aca="false">MIN(B4:B72)</f>
+        <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
-        <f aca="false">MAX(C4:C71)</f>
-        <v>207.800384985206</v>
+        <f aca="false">MIN(C4:C72)</f>
+        <v>37.0135110466435</v>
       </c>
       <c r="D73" s="0" t="n">
-        <f aca="false">MAX(D4:D71)</f>
-        <v>0.899593800445237</v>
+        <f aca="false">MIN(D4:D72)</f>
+        <v>0.578595195396235</v>
       </c>
       <c r="E73" s="0" t="n">
-        <f aca="false">MAX(E4:E71)</f>
-        <v>89.4091717890285</v>
+        <f aca="false">MIN(E4:E72)</f>
+        <v>16.4924225024706</v>
       </c>
       <c r="F73" s="0" t="n">
-        <f aca="false">MAX(F4:F71)</f>
-        <v>0.943757428850501</v>
+        <f aca="false">MIN(F4:F72)</f>
+        <v>0.674096313000832</v>
       </c>
       <c r="G73" s="0" t="n">
-        <f aca="false">MAX(G4:G71)</f>
-        <v>86.7064011477815</v>
+        <f aca="false">MIN(G4:G72)</f>
+        <v>12.8840987267251</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="2" t="n">
-        <f aca="false">AVERAGE(B4:B71)</f>
-        <v>0.202685359491353</v>
+      <c r="B74" s="0" t="n">
+        <f aca="false">MAX(B4:B72)</f>
+        <v>0.681283344230518</v>
       </c>
       <c r="C74" s="0" t="n">
-        <f aca="false">AVERAGE(C4:C71)</f>
-        <v>101.959517476236</v>
-      </c>
-      <c r="D74" s="2" t="n">
-        <f aca="false">AVERAGE(D4:D71)</f>
-        <v>0.813272942032676</v>
+        <f aca="false">MAX(C4:C72)</f>
+        <v>207.800384985206</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <f aca="false">MAX(D4:D72)</f>
+        <v>0.899593800445237</v>
       </c>
       <c r="E74" s="0" t="n">
-        <f aca="false">AVERAGE(E4:E71)</f>
-        <v>31.0411324436868</v>
-      </c>
-      <c r="F74" s="2" t="n">
-        <f aca="false">AVERAGE(F4:F71)</f>
-        <v>0.891921327668133</v>
+        <f aca="false">MAX(E4:E72)</f>
+        <v>89.4091717890285</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <f aca="false">MAX(F4:F72)</f>
+        <v>0.943557681297948</v>
       </c>
       <c r="G74" s="0" t="n">
-        <f aca="false">AVERAGE(G4:G71)</f>
-        <v>25.6605658563068</v>
+        <f aca="false">MAX(G4:G72)</f>
+        <v>86.7064011477815</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <f aca="false">MEDIAN(B$4:B$71)</f>
-        <v>0.159009103365402</v>
+      <c r="B75" s="2" t="n">
+        <f aca="false">AVERAGE(B4:B72)</f>
+        <v>0.208970721396147</v>
       </c>
       <c r="C75" s="0" t="n">
-        <f aca="false">MEDIAN(C$4:C$71)</f>
-        <v>102.254441030768</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <f aca="false">MEDIAN(D$4:D$71)</f>
-        <v>0.827373140989457</v>
+        <f aca="false">AVERAGE(C4:C72)</f>
+        <v>101.018271006242</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <f aca="false">AVERAGE(D4:D72)</f>
+        <v>0.81169458373824</v>
       </c>
       <c r="E75" s="0" t="n">
-        <f aca="false">MEDIAN(E$4:E$71)</f>
-        <v>27.8193692204914</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <f aca="false">MEDIAN(F$4:F$71)</f>
-        <v>0.903038780044732</v>
+        <f aca="false">AVERAGE(E4:E72)</f>
+        <v>31.8479100868823</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <f aca="false">AVERAGE(F4:F72)</f>
+        <v>0.889654371788394</v>
       </c>
       <c r="G75" s="0" t="n">
-        <f aca="false">MEDIAN(G$4:G$71)</f>
-        <v>21.2598233204878</v>
+        <f aca="false">AVERAGE(G4:G72)</f>
+        <v>26.4744038538739</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,31 +2128,60 @@
         <v>78</v>
       </c>
       <c r="B76" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(B$4:B$71)</f>
-        <v>0.184137349475003</v>
+        <f aca="false">MEDIAN(B$4:B$72)</f>
+        <v>0.160210641749103</v>
       </c>
       <c r="C76" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(C$4:C$71)</f>
-        <v>31.2994225958988</v>
+        <f aca="false">MEDIAN(C$4:C$72)</f>
+        <v>102.083299319722</v>
       </c>
       <c r="D76" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(D$4:D$71)</f>
-        <v>0.062080338899582</v>
+        <f aca="false">MEDIAN(D$4:D$72)</f>
+        <v>0.824522890283879</v>
       </c>
       <c r="E76" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(E$4:E$71)</f>
-        <v>12.6191209781249</v>
+        <f aca="false">MEDIAN(E$4:E$72)</f>
+        <v>28.7054001888146</v>
       </c>
       <c r="F76" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(F$4:F$71)</f>
-        <v>0.0462244237449347</v>
+        <f aca="false">MEDIAN(F$4:F$72)</f>
+        <v>0.900103946018026</v>
       </c>
       <c r="G76" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(G$4:G$71)</f>
-        <v>13.1877865040088</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <f aca="false">MEDIAN(G$4:G$72)</f>
+        <v>20.976176963403</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(B$4:B$72)</f>
+        <v>0.190004096407743</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(C$4:C$72)</f>
+        <v>32.0265550326178</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(D$4:D$72)</f>
+        <v>0.0628851994947149</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(E$4:E$72)</f>
+        <v>14.1093211012592</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F$4:F$72)</f>
+        <v>0.0494155535709015</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(G$4:G$72)</f>
+        <v>14.9677478871696</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:C1"/>

--- a/results/06_baseline_unet3d_masks_bbox.xlsx
+++ b/results/06_baseline_unet3d_masks_bbox.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t xml:space="preserve">Initial</t>
   </si>
@@ -34,187 +34,193 @@
     <t xml:space="preserve">liver</t>
   </si>
   <si>
+    <t xml:space="preserve">tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumor_bbox</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dice</t>
   </si>
   <si>
     <t xml:space="preserve">H.D</t>
   </si>
   <si>
+    <t xml:space="preserve">JaneDoe_ANON12304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON25911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON34438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON47965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON56370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON56995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON69091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON82950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneDoe_ANON83544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON10507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON11762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON13231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON15323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON15860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON21673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON22228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON23001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON23808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON24065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON27183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON27373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON27417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON28177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON29513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON32161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON35169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON36736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON39011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON39080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON42529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON44625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON45396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON45696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON46160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON50337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON51834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON53833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON55098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON55215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON55240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON55831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON57371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON59591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON61677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON62642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON64482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON65060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON70417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON72295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON74328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON76802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON77296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON78721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON80520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON81710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON83160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON84994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnDoe_ANON86311</t>
+  </si>
+  <si>
     <t xml:space="preserve">JohnDoe_ANON87212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON12304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON25911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON34438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON47965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON56370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON56995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON69091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON82950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneDoe_ANON83544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON10507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON11762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON13231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON15323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON15860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON21673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON22228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON23001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON23808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON24065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON27183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON27373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON27417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON28177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON29513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON32161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON35169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON36736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON39011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON39080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON42529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON44625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON45396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON45696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON46160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON50337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON51834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON53833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON55098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON55215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON55240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON55831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON57371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON59591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON61677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON62642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON64482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON65060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON70417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON72295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON74328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON76802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON77296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON78721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON80520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON81710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON83160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON84994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JohnDoe_ANON86311</t>
   </si>
   <si>
     <t xml:space="preserve">JohnDoe_ANON87639</t>
@@ -379,6 +385,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF272727"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -387,10 +410,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q77" activeCellId="0" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,14 +427,26 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -420,1395 +455,3489 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.108112367763726</v>
+        <v>0.266148556829346</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>133.600149700515</v>
+        <v>77.614431647729</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.871233239437725</v>
+        <v>0.235377462244416</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>33.4215499341368</v>
+        <v>73.1163456417236</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.900103946018026</v>
+        <v>0.28915286898871</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>32.0156211871642</v>
+        <v>69.3253200497481</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.867818198520551</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>22.4499443206436</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.888875791677325</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>15.6843871413581</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.884477344824391</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>12.1655250605964</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.928343111421009</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>14.1774468787578</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.924466865560277</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>10.3440804327886</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0.919141328422835</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>12.0830459735946</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.266148556829346</v>
+        <v>0.103255366973385</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>77.614431647729</v>
+        <v>104.752088284673</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.867818198520551</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>22.4499443206436</v>
+        <v>96.3794583923359</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.928343111421009</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>14.1774468787578</v>
+        <v>96.8813707582629</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.796818243331779</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>26.1916017074176</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.738502640763505</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>12.0830459735946</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.74898534542917</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>10.4880884817015</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.885618065953608</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>23.43074902772</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.689624071267512</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>14.6969384566991</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.694407517151171</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>15.6524758424985</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.103255366973385</v>
+        <v>0.157807564981701</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>104.752088284673</v>
+        <v>120.037494142455</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.796818243331779</v>
+        <v>0.00120830757934166</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>26.1916017074176</v>
+        <v>114.284732138637</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.885618065953608</v>
+        <v>0.00278558115132102</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>23.43074902772</v>
+        <v>114.284732138637</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.779860431292728</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>42.154477816716</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.4473743802728</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>26.2488094968134</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.496822381670263</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>25.0599281722833</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.903708268382095</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>28.3548937575156</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.74186507154401</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>12.0830459735946</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0.766499891956583</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>14.3178210632764</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.157807564981701</v>
+        <v>0.636375330922107</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120.037494142455</v>
+        <v>37.0135110466435</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.779860431292728</v>
+        <v>0.00376141859215476</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>42.154477816716</v>
+        <v>69.4190175672344</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.903708268382095</v>
+        <v>0.0126026548215485</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>28.3548937575156</v>
+        <v>67.014923711066</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.868905168885733</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>22.9128784747792</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.527369452610948</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>60.613529842767</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.583140317802316</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>58.6344608570762</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.919166386606116</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>18.3847763108502</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.439152314125735</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>60.0166643524946</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0.43935677296266</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>58.1377674149945</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.636375330922107</v>
+        <v>0.0573992549187112</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>37.0135110466435</v>
+        <v>87.9374777896205</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.868905168885733</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>22.9128784747792</v>
+        <v>88.4194548727824</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.919166386606116</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>18.3847763108502</v>
+        <v>87.5042856093346</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.790395253225726</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>30.347981810987</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.406045355323793</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>20.0249843945008</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.440855291774456</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>19.0262975904405</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.915729293728982</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>18.0554700852678</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0.624909222948439</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>14.2126704035519</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0.699217667498028</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>12.2065556157337</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.0573992549187112</v>
+        <v>0.0124107023155153</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>87.9374777896205</v>
+        <v>102.083299319722</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.790395253225726</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>30.347981810987</v>
+        <v>97.0206163658014</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.915729293728982</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>18.0554700852678</v>
+        <v>94.0053189984482</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.84801474557878</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>17.9443584449264</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.176036688123325</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.302147915258719</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>25.298221281347</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.902639343207444</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>14.8660687473185</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.417359469148044</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>19.2613602842582</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>0.496321373353948</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>19.2353840616713</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.0124107023155153</v>
+        <v>0.356239703189662</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>102.083299319722</v>
+        <v>61.0081961706786</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.84801474557878</v>
+        <v>0.171220546465576</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>17.9443584449264</v>
+        <v>41.5932686861708</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.902639343207444</v>
+        <v>0.267157350308335</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>14.8660687473185</v>
+        <v>39.5094925302768</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.814630441391255</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>22.7596133534821</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.654803863538528</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>24.7790233867277</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.660645780051151</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>24.9198715887542</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.898037049962403</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>20.712315177208</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.812369164974101</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>18.165902124585</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0.822409098504881</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>18.165902124585</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.356239703189662</v>
+        <v>0.0297668822954857</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>61.0081961706786</v>
+        <v>108.820953864594</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.814630441391255</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>22.7596133534821</v>
+        <v>100.498756211209</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.898037049962403</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>20.712315177208</v>
+        <v>100.36433629532</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.718337073767097</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>85.5686858611256</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.599350410276786</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>39.1152144312159</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.654886049794538</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>38.7943294825416</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.739374676075919</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>84.7230783199005</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.700986271551371</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>35.7351367704113</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0.71746095695942</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>36.0416425818802</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.0297668822954857</v>
+        <v>0.0309669812009118</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>108.820953864594</v>
+        <v>167.014969388974</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.718337073767097</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>85.5686858611256</v>
+        <v>154.951605348251</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.739374676075919</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>84.7230783199005</v>
+        <v>156.85981002156</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.879339772131359</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>26.343879744639</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.892157665746555</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>13.9283882771841</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.899139309625337</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>11.7046999107196</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.917684137011213</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>20.6155281280883</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.935520525238956</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>8.06225774829855</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0.944669230804036</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>8.24621125123532</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.0309669812009118</v>
+        <v>0.104674600999976</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>167.014969388974</v>
+        <v>94.451045520947</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.879339772131359</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>26.343879744639</v>
+        <v>93.6909814229737</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.917684137011213</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>20.6155281280883</v>
+        <v>93.9946807005588</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.847775529415965</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>25.4558441227157</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.42878362011837</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>17.832554500127</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.464439260123313</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>19.4164878389476</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.913502034956011</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>16.4924225024706</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.595301998027206</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>16.1864140562386</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0.605271089380798</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>15.6524758424985</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.104674600999976</v>
+        <v>0.0126147712013121</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>94.451045520947</v>
+        <v>133.337916587893</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.847775529415965</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>25.4558441227157</v>
+        <v>139.043158767341</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.913502034956011</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>16.4924225024706</v>
+        <v>130.79755349394</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.824522890283879</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>36.0138862107382</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.659342666989803</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>100.628027904754</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.700459237725649</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>92.4445779913565</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.921726983186288</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>17.7482393492988</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.71859467259368</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>100.044989879554</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0.750294040699328</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>91.8803569866813</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.0142703295893339</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>109.62663909835</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>107.321945565667</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>107.396461766671</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.82812085559471</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>20.712315177208</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.586892105995186</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>16.7630546142402</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.723521959950257</v>
+      </c>
+      <c r="M15" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.0126147712013121</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>133.337916587893</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.824522890283879</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>36.0138862107382</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.921726983186288</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>17.7482393492988</v>
+      <c r="N15" s="0" t="n">
+        <v>0.917579182124437</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>17.0293863659264</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.61959945534342</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>14.0356688476182</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0.753158411705599</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>18.3303027798234</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.0142703295893339</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>109.62663909835</v>
+        <v>144.727329830962</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.82812085559471</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>20.712315177208</v>
+        <v>142.035206903077</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.917579182124437</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>17.0293863659264</v>
+        <v>141.325864582531</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.838974409652192</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>22.1585198061603</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.389794170322112</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>20.6639783197718</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0.538582377905872</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>19.5192212959431</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.901049575940218</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>15.3622914957372</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.473372907527824</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>16.0312195418814</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>0.612249811301111</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>16.5227116418583</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>0.0565752150656887</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>144.727329830962</v>
+        <v>104.947605975553</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.838974409652192</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>22.1585198061603</v>
+        <v>105.190303735658</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.901049575940218</v>
+        <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>15.3622914957372</v>
+        <v>105.190303735658</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.87360363330037</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>19.9248588451713</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.60621135791161</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>17.2046505340853</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.703133606957977</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>15.2315462117278</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.938634011989905</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>15.1327459504216</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.787389882541377</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>10.2469507659596</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>0.845991444583227</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>9.8488578017961</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.0565752150656887</v>
+        <v>0.217834813085246</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>104.947605975553</v>
+        <v>92.2225568936364</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.87360363330037</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>19.9248588451713</v>
+        <v>91.8585869693193</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.938634011989905</v>
+        <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>15.1327459504216</v>
+        <v>89.3252483903627</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.793306920457111</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>26.2868788561898</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.695564638391287</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>21.4009345590327</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.757210814449976</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>23.1948270094864</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.887762166259233</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>27.0924343682881</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.759356011595722</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>11.2249721603218</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>0.795919830448478</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>11.180339887499</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.217834813085246</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>92.2225568936364</v>
+        <v>133.240384268434</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.793306920457111</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>26.2868788561898</v>
+        <v>117.766718558343</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.887762166259233</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>27.0924343682881</v>
+        <v>118.760262714428</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.708479425315004</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>33.7194306001747</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.35556963118648</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>32.8785644455472</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.373842623835875</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>34.5832329315812</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.788140315765687</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>32.2800247831379</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.356244022989594</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>32.5729949498047</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0.36940736785905</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>33.9411254969543</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>0.681283344230518</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>133.240384268434</v>
+        <v>51.4295634824952</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.708479425315004</v>
+        <v>0.636354763319226</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>33.7194306001747</v>
+        <v>42.8485705712571</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.788140315765687</v>
+        <v>0.655299009883617</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>32.2800247831379</v>
+        <v>42.8485705712571</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.83765950380388</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>33.6154726279432</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.849264823568327</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>26.1916017074176</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.866557635060749</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>23.259406699226</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.919156930484546</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>21.4009345590327</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.938076305768565</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>16.0934769394311</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0.93533013687329</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.681283344230518</v>
+        <v>0.0109701816389844</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>51.4295634824952</v>
+        <v>126.431799797361</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.83765950380388</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>33.6154726279432</v>
+        <v>124.679589348057</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.919156930484546</v>
+        <v>0.00310763440409851</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>21.4009345590327</v>
+        <v>124.615408357073</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.870749951915256</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.772694303256149</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>68.3593446428504</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.84468252572644</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>64.1950153828161</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.901474696174704</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>24.8394846967484</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.824672610154124</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>65.5209890035247</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>0.876165374171721</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>64.8999229583518</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.0109701816389844</v>
+        <v>0.177789926279852</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>126.431799797361</v>
+        <v>107.307968017291</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.870749951915256</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>29</v>
+        <v>114.721401665077</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.901474696174704</v>
+        <v>0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>24.8394846967484</v>
+        <v>115.386307679898</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.752470666791494</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>32.9393381840012</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.536942354769117</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>36.9459064038223</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.576688960459628</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>39.255572852781</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.859815213828708</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>34.322004603461</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.72070895090989</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>28.0356915377524</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>0.728209220856478</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>31.5119025131775</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.177789926279852</v>
+        <v>0.45217860647033</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>107.307968017291</v>
+        <v>64.5677938294317</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.752470666791494</v>
+        <v>0.063268750506013</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>32.9393381840012</v>
+        <v>58.0172388174412</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.859815213828708</v>
+        <v>0.155576063036842</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>34.322004603461</v>
+        <v>57.6974869470066</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.821903058549017</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>32.5729949498047</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.687803629712291</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>21.4709105535839</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0.757222560622424</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>20.4939015319192</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.895663152475066</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>20.976176963403</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0.790347630422554</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>15.8429795177549</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>0.830276909515688</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>16.4012194668567</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.45217860647033</v>
+        <v>0.00446262383038543</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>64.5677938294317</v>
+        <v>121.89339604753</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.821903058549017</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>32.5729949498047</v>
+        <v>131.457217375084</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.895663152475066</v>
+        <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>20.976176963403</v>
+        <v>130.506704808604</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.864313470599229</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>16.7630546142402</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.784691692889089</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>23.7065391822594</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.794527035916327</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>21.095023109729</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.93723679078365</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>19.6214168703486</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.779203851933634</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>22.4053565024081</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>0.794947608947471</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>19.723082923316</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.00446262383038543</v>
+        <v>0.229054344446514</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>121.89339604753</v>
+        <v>102.425582741813</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.864313470599229</v>
+        <v>0.110133097492798</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>16.7630546142402</v>
+        <v>85.7088093488645</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.93723679078365</v>
+        <v>0.131145846927128</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>19.6214168703486</v>
+        <v>88.5155353596192</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.851883376338654</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>21.095023109729</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.808746581841866</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>16.9115345252878</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.860161512689377</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>16.6433169770932</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.92807325848495</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>17.0293863659264</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.930192564498102</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>9.2736184954957</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>0.940144172409285</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.229054344446514</v>
+        <v>0.338209542821814</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>102.425582741813</v>
+        <v>84.2436941260294</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.851883376338654</v>
+        <v>0.261776421780671</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>21.095023109729</v>
+        <v>82.8371897157309</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.92807325848495</v>
+        <v>0.281814656502005</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>17.0293863659264</v>
+        <v>84.154619599877</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.899593800445237</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>26.5894716006167</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.912278169916001</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>17.464249196573</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>0.914667932340839</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>17.9164728671689</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.942063533460198</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>19.8746069143518</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0.939667434082667</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>11.2249721603218</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>0.926721712941172</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>18.1383571472171</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.338209542821814</v>
+        <v>0.425517781238418</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>84.2436941260294</v>
+        <v>62.3217458035315</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.899593800445237</v>
+        <v>0.0222311594799808</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>26.5894716006167</v>
+        <v>57.2101389615512</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.942063533460198</v>
+        <v>0.0387607301001295</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>19.8746069143518</v>
+        <v>57.7754273026172</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.868902647208508</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>21.6564078277077</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.751670712482713</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>13.2664991614216</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>0.788619818107192</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>12.6491106406735</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.911187911066253</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0.799943360158592</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>11.180339887499</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>0.833807053905282</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>10.4403065089106</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.425517781238418</v>
+        <v>0.567903420673844</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>62.3217458035315</v>
+        <v>55.4707129934347</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.868902647208508</v>
+        <v>0.189030487693436</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>21.6564078277077</v>
+        <v>45.8693797647189</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.911187911066253</v>
+        <v>0.272208747741442</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>18</v>
+        <v>43.0116263352131</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.838348269083459</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>22.8910462845192</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.697015873394545</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>22.7376340018041</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>0.725252360794529</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>22.6495033058122</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.903759024341949</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>21.1187120819429</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0.674405600662059</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>23.832750575626</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>0.735195351967432</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>21.4009345590327</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.567903420673844</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>55.4707129934347</v>
+        <v>150.973507609779</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.838348269083459</v>
+        <v>0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>22.8910462845192</v>
+        <v>137.731623093609</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.903759024341949</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>21.1187120819429</v>
+        <v>137.858623234094</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.79085602881186</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>45.5192267069642</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.760158201498751</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>17.6635217326557</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>0.774277000094119</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>16.5529453572468</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.871121835967437</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>37.5366487582469</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0.801368837339105</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>16.3095064303001</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>0.825932436607966</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>18.7082869338697</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>0.0233832898041961</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>150.973507609779</v>
+        <v>135.550728511506</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.79085602881186</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>45.5192267069642</v>
+        <v>125.259730160974</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.871121835967437</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>37.5366487582469</v>
+        <v>124.791826655434</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.823904312024086</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>32.155870381627</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.00209112920977328</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>25.0798724079689</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>0.0253855278766311</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>24.9399278266798</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.87895795542305</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>29.8998327754521</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0.0535414295778464</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>21.4009345590327</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>0.0836973478939158</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>20.6397674405503</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.0233832898041961</v>
+        <v>0.283766654731055</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>135.550728511506</v>
+        <v>106.343782140753</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.823904312024086</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>32.155870381627</v>
+        <v>97.821265581672</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.87895795542305</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>29.8998327754521</v>
+        <v>97.8774744259373</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.76972538513061</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>30.2820078594534</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.299178265973503</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>24.3721152139079</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>0.303303584569892</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>23.9582971014219</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0.907811149382323</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>19.0262975904405</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>0.641869699949899</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>12.6885775404495</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>0.652449742016367</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>11.5758369027902</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.283766654731055</v>
+        <v>0.149268258451093</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>106.343782140753</v>
+        <v>131.244047484067</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.76972538513061</v>
+        <v>0.0693186070559476</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>30.2820078594534</v>
+        <v>113.850779531807</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.907811149382323</v>
+        <v>0.135480836502119</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>19.0262975904405</v>
+        <v>113.428391507594</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.845650084479672</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>35.7351367704113</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0.891705216321079</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>18.5741756210067</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0.896937533172927</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>17.3493515728975</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0.897866437359555</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>26.3248931621764</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0.915290541351714</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>16.0312195418814</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>0.913958810959605</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>16.2788205960997</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.149268258451093</v>
+        <v>0.357772117446522</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>131.244047484067</v>
+        <v>84.0059521700695</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.845650084479672</v>
+        <v>3.24485690181063E-005</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>35.7351367704113</v>
+        <v>82.0853214649245</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.897866437359555</v>
+        <v>0.00114736152235993</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>26.3248931621764</v>
+        <v>83.4445923951936</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.775153020863672</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>41.0121933088197</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.84808189622194</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>0.840527265368283</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.862671186767485</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>30.2985148150862</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.825200934414402</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>10.7238052947636</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>0.835480985175516</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>10.6301458127347</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.357772117446522</v>
+        <v>0.00927782223616268</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>84.0059521700695</v>
+        <v>113.745329574449</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.775153020863672</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>41.0121933088197</v>
+        <v>123.016259087976</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.862671186767485</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>30.2985148150862</v>
+        <v>121.161049846888</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.763406152234918</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>28.7054001888146</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.472901916126157</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>26.2868788561898</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>0.471647676415802</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>23.0217288664427</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.899154174554903</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>17.0880074906351</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.836961315290048</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>0.830563936159546</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>11.7473401244707</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.00927782223616268</v>
+        <v>0.346490359163313</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>113.745329574449</v>
+        <v>70.3206939669967</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.763406152234918</v>
+        <v>0.112843059008303</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>28.7054001888146</v>
+        <v>68.6804193347711</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.899154174554903</v>
+        <v>0.20920947830171</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>17.0880074906351</v>
+        <v>70.6894617322837</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.85468369156805</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.771069198173071</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>31.2409987036266</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>0.845642833508506</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>21.4709105535839</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.918193140120993</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>16.583123951777</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.791305727218325</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>32.6955654485436</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>0.867570828060385</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>23.1732604525129</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.346490359163313</v>
+        <v>1.04848436342845E-005</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>70.3206939669967</v>
+        <v>133.895481626528</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.85468369156805</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>19</v>
+        <v>133.555232020314</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.918193140120993</v>
+        <v>0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>16.583123951777</v>
+        <v>137.640836963454</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.809733634352879</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>40.4969134626332</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.590180267131604</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>0.61824125127305</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>35.4400902933387</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.868556559006092</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>31.8433666561813</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.655299868507839</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>0.672371968146616</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>31.0644491340181</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1.04848436342845E-005</v>
+        <v>0.144188158474021</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>133.895481626528</v>
+        <v>115.160757204874</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.809733634352879</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>40.4969134626332</v>
+        <v>98.2700361249552</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.868556559006092</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>31.8433666561813</v>
+        <v>99.4635611668917</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.816643717690257</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>23.7697286480094</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.730135449445889</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>15.2315462117278</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>0.763830644918686</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>11.4455231422596</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.905016410477361</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>17.2336879396141</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.712029161603888</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>17.7200451466694</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>0.758988316316557</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.144188158474021</v>
+        <v>0.175428643332733</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>115.160757204874</v>
+        <v>96.1301201497221</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.816643717690257</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>23.7697286480094</v>
+        <v>82.8673639015988</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.905016410477361</v>
+        <v>0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>17.2336879396141</v>
+        <v>84.1486779456457</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.809618739097932</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>30.8220700148449</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.719992973305317</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>13.6014705087354</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>0.714300576350887</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>12.2065556157337</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.93195023396487</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>15.52417469626</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0.739079900003247</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>12.5299640861417</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>0.762012357281398</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>14.3178210632764</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.175428643332733</v>
+        <v>0.4314516757099</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>96.1301201497221</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.809618739097932</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>30.8220700148449</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0.93195023396487</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>15.52417469626</v>
+        <v>87.3670418407308</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.85007172177683</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>21.9317121994613</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0.887451976420159</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>19.2613602842582</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.4314516757099</v>
+        <v>0.183119659678796</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>87.3670418407308</v>
+        <v>89.1403387922662</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.85007172177683</v>
+        <v>0.123043333697943</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>21.9317121994613</v>
+        <v>95.9009906101079</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.887451976420159</v>
+        <v>0.182651168686624</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>19.2613602842582</v>
+        <v>100.667770413375</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.739806119704117</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>58.3952052826257</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.730489178849393</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>52.9528091794949</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>0.800132885866276</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>48.1663783151692</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>0.826126907043926</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>48.2700735445887</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0.74050178424074</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>48.8466989672793</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>0.781928233428405</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>44.1021541423999</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.183119659678796</v>
+        <v>0.342517102791411</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>89.1403387922662</v>
+        <v>75.7693869580585</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.739806119704117</v>
+        <v>0.000107646488930353</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>58.3952052826257</v>
+        <v>78.6193360440038</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.826126907043926</v>
+        <v>0.00058208723547369</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>48.2700735445887</v>
+        <v>84.9588135510378</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.813654630828414</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>30.6757233003559</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0.401433757303658</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>40.9389789809174</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0.483973383778921</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>44.5982062419555</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.898926760958713</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>24.5356882927706</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>0.410202935750381</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>34.928498393146</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>0.47870052325768</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>34.7562943939655</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.342517102791411</v>
+        <v>0.552167423291218</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>75.7693869580585</v>
+        <v>57.3236425918661</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.813654630828414</v>
+        <v>0.223128049928322</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>30.6757233003559</v>
+        <v>48.7852436706019</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.898926760958713</v>
+        <v>0.270408471768163</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>24.5356882927706</v>
+        <v>48.4148737476408</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.82120087904262</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>28.1780056072107</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.641185286791823</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>31.7804971641414</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0.693312295622595</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>32.542280190546</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.884304197352006</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>20.3469899493758</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.722941059820251</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>32.0156211871642</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>0.73625197729599</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>34.5253530032641</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.552167423291218</v>
+        <v>0.387671729569927</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>57.3236425918661</v>
+        <v>113.639781766774</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.82120087904262</v>
+        <v>0.256812064349842</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>28.1780056072107</v>
+        <v>140.854534893272</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.884304197352006</v>
+        <v>0.24125932062966</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>20.3469899493758</v>
+        <v>141.661568535718</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.881298819152958</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>34.0147027033899</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0.854096962477665</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>34.4383507154451</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0.842906535267673</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>34.4963766213207</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.893294080649867</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>29.0344622819159</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.864216934801138</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>34.132096331752</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>0.848921324753296</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>34.3656805548792</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.387671729569927</v>
+        <v>0.177931489327684</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>113.639781766774</v>
+        <v>106.611444038621</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.881298819152958</v>
+        <v>1.79417896576348E-006</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>34.0147027033899</v>
+        <v>114.725759966975</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.893294080649867</v>
+        <v>0.00118755766063787</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>29.0344622819159</v>
+        <v>115.797236581881</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.770693591355831</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>89.4091717890285</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0.401090651238347</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>74.0405294416511</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>0.494180862766561</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>74.4647567645259</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.807954843307715</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>86.7064011477815</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0.403125755385549</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>72.0416546173115</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>0.510716618059246</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>73.348483283569</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.177931489327684</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>106.611444038621</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0.770693591355831</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>89.4091717890285</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0.807954843307715</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>86.7064011477815</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.105003698967253</v>
+        <v>0.548360881352972</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>147.244694301696</v>
+        <v>57.7840808527747</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.647892539489331</v>
+        <v>0.0369558188071372</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>50.9313263129874</v>
+        <v>87.0172396712284</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.825640759506418</v>
+        <v>0.091258870017235</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>53.5723809439155</v>
+        <v>85.0235261559999</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.850004493358816</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>29.1376045686669</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0.420011985617259</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>51.234753829798</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>0.514425958835466</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>51.234753829798</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.886136310607447</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>26.3058928759318</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0.414032164309242</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>58.5320425066476</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>0.482616467548945</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>58.5320425066476</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.548360881352972</v>
+        <v>0.482010955074342</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>57.7840808527747</v>
+        <v>86.1974477580398</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.850004493358816</v>
+        <v>0.000472813238770686</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>29.1376045686669</v>
+        <v>51</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.886136310607447</v>
+        <v>0.00449769299367997</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>26.3058928759318</v>
+        <v>52.1536192416212</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.835978173939562</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>37.9077828420497</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0.32659511031604</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>16.2480768092719</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>0.408543521751069</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>15.2970585407784</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>0.859275773853296</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>36.6196668472011</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0.465223647919415</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>15.2970585407784</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>0.530333880245913</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>15.2970585407784</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.482010955074342</v>
+        <v>0.13224218557716</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>86.1974477580398</v>
+        <v>92.4932429964481</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.835978173939562</v>
+        <v>0.00216982035163853</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>37.9077828420497</v>
+        <v>78.8986691902975</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.859275773853296</v>
+        <v>0.00257254088910824</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>36.6196668472011</v>
+        <v>76.6420250254389</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.855154783334843</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>17.6635217326557</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.893298365232033</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>0.892599056042518</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0.888596766348938</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>18.2482875908947</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>0.892558693771737</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>6.78232998312527</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>0.903583339142303</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>7.81024967590665</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.13224218557716</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>92.4932429964481</v>
+        <v>146.700374914313</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.855154783334843</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>17.6635217326557</v>
+        <v>139.502688146143</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.888596766348938</v>
+        <v>0</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>18.2482875908947</v>
+        <v>139.208476753393</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.841457116498009</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>20.8566536146142</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0.772704731185484</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>14.7648230602334</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>0.803215679285223</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>14.2126704035519</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>0.905556493822014</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>13.6014705087354</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>0.88795890293182</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>12.2474487139159</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>0.896702721248126</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>10.0498756211209</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0</v>
+        <v>0.184026456749132</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>146.700374914313</v>
+        <v>95.6765383989199</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.841457116498009</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>20.8566536146142</v>
+        <v>107.902733978338</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.905556493822014</v>
+        <v>0</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>13.6014705087354</v>
+        <v>107.731146842499</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.804501288504675</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>36.8103246386119</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0.56414592763307</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>46.5403051128804</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>0.606745644130759</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>34.132096331752</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>0.884054134185076</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>28.2311884269862</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>0.692157136497383</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>39.420806688854</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>0.707821865698393</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>28.3548937575156</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.184026456749132</v>
+        <v>0.0364112917935009</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>95.6765383989199</v>
+        <v>96.8607247546703</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.804501288504675</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>36.8103246386119</v>
+        <v>77.7881739083776</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0.884054134185076</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>28.2311884269862</v>
+        <v>79.9312204335703</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.819495083855745</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>28.1069386451104</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.722084387430552</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>11.0453610171873</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>0.74375838388692</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>10.7238052947636</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0.87187091518493</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>26.4764045897474</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>0.627812035597766</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>0.693896191156091</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>12.0830459735946</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.0364112917935009</v>
+        <v>0.160210641749103</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>96.8607247546703</v>
+        <v>108.604788108076</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.819495083855745</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>28.1069386451104</v>
+        <v>98.498730956292</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0.87187091518493</v>
+        <v>0</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>26.4764045897474</v>
+        <v>96.2340895940726</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0.822798812876183</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>26.4196896272458</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0.500611051007733</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>26.2678510731274</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>0.633066811504134</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>27.3313007374329</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>0.880236819885815</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>19.8746069143518</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>0.622380316050275</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>19.7484176581315</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>0.735489858014694</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>20.6639783197718</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.160210641749103</v>
+        <v>0.0167793762259721</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>108.604788108076</v>
+        <v>149.147577922003</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.822798812876183</v>
+        <v>0</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>26.4196896272458</v>
+        <v>196.048463396172</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0.880236819885815</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>19.8746069143518</v>
+        <v>195.657864651539</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.826625426384203</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>22.0227155455452</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0.346166453112429</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>91.4494395827552</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>0.331703090401463</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>89.7663634108011</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0.911732479342443</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>14.4913767461894</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>0.28358049717273</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>84.7407812095215</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>0.300751438299871</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>84.1783820229398</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.0167793762259721</v>
+        <v>0.302045844224313</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>149.147577922003</v>
+        <v>72.4016574395918</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.826625426384203</v>
+        <v>0.0185236606623015</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>22.0227155455452</v>
+        <v>68.854919940408</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0.911732479342443</v>
+        <v>0.034378206517812</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>14.4913767461894</v>
+        <v>66.9552089086428</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0.850845363081075</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0.641765626544153</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>19.3390796058137</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>0.654701575746134</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>18.2756668824971</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>0.899701274739212</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>23.7907545067406</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>0.819833813116844</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>8.66025403784439</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>0.845008145563829</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>9.64365076099296</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.302045844224313</v>
+        <v>0.0496208376665865</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>72.4016574395918</v>
+        <v>99.9449848666755</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.850845363081075</v>
+        <v>0</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>26</v>
+        <v>108.300507847378</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0.899701274739212</v>
+        <v>0</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>23.7907545067406</v>
+        <v>108.853112036358</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.829146646465485</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>22.7596133534821</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0.193633608424327</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>35.8608421540822</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>0.340593083785301</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>38.0788655293195</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0.911491861901106</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>18.3575597506858</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>0.390942207596817</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>30.4138126514911</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>0.505650164466836</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>31.5753068076939</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.0496208376665865</v>
+        <v>0.359611591630902</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>99.9449848666755</v>
+        <v>71.9513724677994</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.829146646465485</v>
+        <v>0.00719421451307298</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>22.7596133534821</v>
+        <v>67.4240313241503</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0.911491861901106</v>
+        <v>0.0116223146564567</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>18.3575597506858</v>
+        <v>67.6091709755415</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.803928656096983</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0.476753951324387</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>24.5153013442625</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0.554773897693966</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0.918344547760898</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>16.5227116418583</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>0.661467830288574</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>18.411952639522</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>0.711561980078218</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>19.2353840616713</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.359611591630902</v>
+        <v>0.423169867804234</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>71.9513724677994</v>
+        <v>75.0333259292163</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.803928656096983</v>
+        <v>0.369133863208065</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>26</v>
+        <v>43.1740662898458</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0.918344547760898</v>
+        <v>0.394429760181537</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>16.5227116418583</v>
+        <v>41.146081222882</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0.712903005205579</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>32.1403173599764</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0.578101219568439</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>33.2415402771893</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0.585526138452664</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>32.1403173599764</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0.872104160012735</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>28.8617393793236</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>0.665911064769679</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>28.8617393793236</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>0.683608531367281</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>28.8617393793236</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.423169867804234</v>
+        <v>0.20522052781232</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>75.0333259292163</v>
+        <v>91.3509715328742</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.712903005205579</v>
+        <v>0.0041353769950595</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>32.1403173599764</v>
+        <v>92.2225568936364</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0.872104160012735</v>
+        <v>0.00860626987879526</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>28.8617393793236</v>
+        <v>91.2907443282176</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0.72808984011505</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>23.2808934536456</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0.643848898781255</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>19.672315572906</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0.729050421657652</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>20.6397674405503</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0.927833393467586</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>22.2261107708929</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>0.8663574907182</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>8.06225774829855</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>0.88988318385323</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>12.0830459735946</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.20522052781232</v>
+        <v>0.152562439648235</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>91.3509715328742</v>
+        <v>111.772089539384</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.72808984011505</v>
+        <v>0.00419508744577496</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>23.2808934536456</v>
+        <v>91.5641851380768</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0.927833393467586</v>
+        <v>0.0210405488890557</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>22.2261107708929</v>
+        <v>89.6381615161757</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0.793643852022293</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>29.2061637330205</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0.729622034627894</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0.784770757350019</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>18.2482875908947</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0.865538935877672</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>27.9642629082191</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0.824719250736614</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>0.852791699723798</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>14.7648230602334</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.152562439648235</v>
+        <v>1.38453018275798E-005</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>111.772089539384</v>
+        <v>152.269497930479</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.793643852022293</v>
+        <v>0</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>29.2061637330205</v>
+        <v>132.597134207343</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0.865538935877672</v>
+        <v>0</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>27.9642629082191</v>
+        <v>134.096979831762</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0.752804411229655</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>31.2089730686545</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0.850687619492036</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>14.560219778561</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>0.855236969427001</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>13.1909059582729</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>0.914231226318806</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>20.6639783197718</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0.812489977613999</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>14.456832294801</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>0.831202341614365</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>17.5499287747843</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>1.38453018275798E-005</v>
+        <v>0.242198481201484</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>152.269497930479</v>
+        <v>60.8851377595551</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.752804411229655</v>
+        <v>0</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>31.2089730686545</v>
+        <v>64.0702739185654</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0.914231226318806</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>20.6639783197718</v>
+        <v>63.7887137352683</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0.795887148825028</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>34.6698716467194</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>0.661016521629461</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>14.4913767461894</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>0.672298302614399</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>0.910437397957742</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>17.7482393492988</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>0.834400687430082</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>9.48683298050514</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>0.873580087469547</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>9.89949493661167</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.242198481201484</v>
+        <v>0.108112367763726</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>60.8851377595551</v>
+        <v>133.600149700515</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.795887148825028</v>
+        <v>0.000125585376574361</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>34.6698716467194</v>
+        <v>206.799419728393</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0.910437397957742</v>
+        <v>0.000416728134963921</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>17.7482393492988</v>
+        <v>193.563942923262</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.871233239437725</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>33.4215499341368</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>0.614525624733723</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>146.676514820881</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>0.677242717231453</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>122.290637417588</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>0.900103946018026</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>32.0156211871642</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>0.641423504583469</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>150.246464184686</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>0.695074755310925</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>128.163957491956</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.513543782882742</v>
@@ -1817,21 +3946,57 @@
         <v>57.8791845139511</v>
       </c>
       <c r="D63" s="0" t="n">
+        <v>0.0990071413971868</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>53.5350352572967</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0.164089843572444</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>51.5848815061157</v>
+      </c>
+      <c r="H63" s="0" t="n">
         <v>0.578595195396235</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="I63" s="0" t="n">
         <v>63.4113554499508</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="J63" s="0" t="n">
+        <v>0.335242995894301</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>52.4404424085076</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>0.366959447304219</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>52.8109837060436</v>
+      </c>
+      <c r="N63" s="0" t="n">
         <v>0.674096313000832</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="O63" s="0" t="n">
         <v>66.2947961758689</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>0.585455896688512</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>60.5722708836312</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>0.637819973019798</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>60.9918027279076</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0.0568413958623849</v>
@@ -1840,21 +4005,57 @@
         <v>108.98164983152</v>
       </c>
       <c r="D64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>101.705457080729</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>101.390334845093</v>
+      </c>
+      <c r="H64" s="0" t="n">
         <v>0.853381203353476</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="I64" s="0" t="n">
         <v>16.8226038412607</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="J64" s="0" t="n">
+        <v>0.449373881932022</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>11.5758369027902</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>0.47171097477846</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>9.2736184954957</v>
+      </c>
+      <c r="N64" s="0" t="n">
         <v>0.93540929885954</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="O64" s="0" t="n">
+        <v>12.8840987267251</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>0.410187215382021</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>12.0830459735946</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>0.468130462587934</v>
+      </c>
+      <c r="S64" s="0" t="n">
         <v>12.8840987267251</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0.0601792944072513</v>
@@ -1863,21 +4064,57 @@
         <v>104.809350727881</v>
       </c>
       <c r="D65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>97.5141015443408</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>97.082439194738</v>
+      </c>
+      <c r="H65" s="0" t="n">
         <v>0.861328769619531</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="I65" s="0" t="n">
         <v>19.2093727122986</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="J65" s="0" t="n">
+        <v>0.752172363031389</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>14.456832294801</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>0.782412566288514</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>13.8924439894498</v>
+      </c>
+      <c r="N65" s="0" t="n">
         <v>0.943557681297948</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="O65" s="0" t="n">
         <v>13.2664991614216</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>0.916894062072236</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>7.81024967590665</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>0.917237383938497</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>7.07106781186548</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0.427433432685638</v>
@@ -1886,21 +4123,57 @@
         <v>71.3652576538472</v>
       </c>
       <c r="D66" s="0" t="n">
+        <v>0.179406992771074</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>50.2891638427206</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0.346048544200495</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>50.0599640431353</v>
+      </c>
+      <c r="H66" s="0" t="n">
         <v>0.871657716125912</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="I66" s="0" t="n">
         <v>36.6196668472011</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="J66" s="0" t="n">
+        <v>0.80221141802804</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>11.3578166916006</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>0.842961597346092</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>14.6969384566991</v>
+      </c>
+      <c r="N66" s="0" t="n">
         <v>0.942460678091124</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="O66" s="0" t="n">
         <v>32.3419232575925</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>0.812959544303569</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>13.076696830622</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>0.849394868353766</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>15.6204993518133</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0.0600900098380006</v>
@@ -1909,21 +4182,57 @@
         <v>121.40840168621</v>
       </c>
       <c r="D67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>118.194754536739</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>120.020831525198</v>
+      </c>
+      <c r="H67" s="0" t="n">
         <v>0.828147133995716</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="I67" s="0" t="n">
         <v>25.6709953059869</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="J67" s="0" t="n">
+        <v>0.844953673328959</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>0.865448170478909</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>9.21954445729289</v>
+      </c>
+      <c r="N67" s="0" t="n">
         <v>0.889153482639727</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="O67" s="0" t="n">
         <v>23.5372045918796</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>0.882515142774733</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>6.08276253029822</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>0.889063223928621</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0.564746917702675</v>
@@ -1932,21 +4241,57 @@
         <v>46.4435140789325</v>
       </c>
       <c r="D68" s="0" t="n">
+        <v>0.231128822581734</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>50.9901951359278</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0.260609196953008</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>50.9901951359278</v>
+      </c>
+      <c r="H68" s="0" t="n">
         <v>0.838672131859855</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="I68" s="0" t="n">
         <v>45.3982378512647</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="J68" s="0" t="n">
+        <v>0.659418542541015</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>31.1448230047949</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>0.685168359670898</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>26.9072480941474</v>
+      </c>
+      <c r="N68" s="0" t="n">
         <v>0.899972508347264</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="O68" s="0" t="n">
         <v>41.6773319683494</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>0.6354421057283</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>34.3365694267788</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>0.670482071923297</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>29.4618397253125</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -1955,21 +4300,57 @@
         <v>207.800384985206</v>
       </c>
       <c r="D69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>203.668848869924</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>201.846476313063</v>
+      </c>
+      <c r="H69" s="0" t="n">
         <v>0.583864318056969</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="I69" s="0" t="n">
         <v>66.5807780068692</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="J69" s="0" t="n">
+        <v>0.265878942957173</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>56.7978872846517</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>0.462811315224234</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>56.2405547625555</v>
+      </c>
+      <c r="N69" s="0" t="n">
         <v>0.708381129111178</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="O69" s="0" t="n">
         <v>63.9609255717895</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>0.464334255579482</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>55.3353413290277</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>0.598899467330457</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>54.8270006474912</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0.309745642279525</v>
@@ -1978,21 +4359,57 @@
         <v>101.118742080783</v>
       </c>
       <c r="D70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>86.5158944934398</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>86.0987804791682</v>
+      </c>
+      <c r="H70" s="0" t="n">
         <v>0.888600605042458</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="I70" s="0" t="n">
         <v>16.4924225024706</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="J70" s="0" t="n">
+        <v>0.55063395356496</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>9.1104335791443</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>0.601024494737823</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>9.4339811320566</v>
+      </c>
+      <c r="N70" s="0" t="n">
         <v>0.938728522328615</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="O70" s="0" t="n">
         <v>17</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>0.823486296170257</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>5.09901951359278</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>0.821074483696625</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>5.3851648071345</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0.410643296082143</v>
@@ -2001,21 +4418,57 @@
         <v>60.4235053600832</v>
       </c>
       <c r="D71" s="0" t="n">
+        <v>0.201960194719177</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>48.2493523272593</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0.271988955805259</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>48.7442304278158</v>
+      </c>
+      <c r="H71" s="0" t="n">
         <v>0.879801049429733</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="I71" s="0" t="n">
         <v>46.357307945997</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="J71" s="0" t="n">
+        <v>0.815326470157886</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>13.7477270848675</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>0.841900509036909</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>13.6014705087354</v>
+      </c>
+      <c r="N71" s="0" t="n">
         <v>0.917620660225045</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="O71" s="0" t="n">
         <v>44.5533388198909</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>0.825811132968041</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>14.142135623731</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>0.866902578650568</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>14.3178210632764</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0</v>
@@ -2024,172 +4477,454 @@
         <v>117.9618582424</v>
       </c>
       <c r="D72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>121.016527796826</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>121.016527796826</v>
+      </c>
+      <c r="H72" s="0" t="n">
         <v>0.759660009344772</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="I72" s="0" t="n">
         <v>24.2280828791714</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="J72" s="0" t="n">
+        <v>0.4513242248675</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>29.1376045686669</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>0.508115010710166</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>29.6816441593117</v>
+      </c>
+      <c r="N72" s="0" t="n">
         <v>0.8874012202807</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="O72" s="0" t="n">
         <v>14.4913767461894</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>0.572092537832667</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>24.454038521275</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>0.642264349558728</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>24.5153013442625</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73" s="0" t="n">
-        <f aca="false">MIN(B4:B72)</f>
+        <f aca="false">MIN(B46:B72)</f>
         <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
-        <f aca="false">MIN(C4:C72)</f>
-        <v>37.0135110466435</v>
+        <f aca="false">MIN(C46:C72)</f>
+        <v>46.4435140789325</v>
       </c>
       <c r="D73" s="0" t="n">
-        <f aca="false">MIN(D4:D72)</f>
+        <f aca="false">MIN(D46:D72)</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <f aca="false">MIN(E46:E72)</f>
+        <v>43.1740662898458</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <f aca="false">MIN(F46:F72)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <f aca="false">MIN(G46:G72)</f>
+        <v>41.146081222882</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <f aca="false">MIN(H46:H72)</f>
         <v>0.578595195396235</v>
       </c>
-      <c r="E73" s="0" t="n">
-        <f aca="false">MIN(E4:E72)</f>
+      <c r="I73" s="0" t="n">
+        <f aca="false">MIN(I46:I72)</f>
         <v>16.4924225024706</v>
       </c>
-      <c r="F73" s="0" t="n">
-        <f aca="false">MIN(F4:F72)</f>
+      <c r="J73" s="0" t="n">
+        <f aca="false">MIN(J46:J72)</f>
+        <v>0.193633608424327</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <f aca="false">MIN(K46:K72)</f>
+        <v>6</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <f aca="false">MIN(L46:L72)</f>
+        <v>0.331703090401463</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <f aca="false">MIN(M46:M72)</f>
+        <v>6</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <f aca="false">MIN(N46:N72)</f>
         <v>0.674096313000832</v>
       </c>
-      <c r="G73" s="0" t="n">
-        <f aca="false">MIN(G4:G72)</f>
+      <c r="O73" s="0" t="n">
+        <f aca="false">MIN(O46:O72)</f>
         <v>12.8840987267251</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <f aca="false">MIN(P46:P72)</f>
+        <v>0.28358049717273</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <f aca="false">MIN(Q46:Q72)</f>
+        <v>5.09901951359278</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <f aca="false">MIN(R46:R72)</f>
+        <v>0.300751438299871</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <f aca="false">MIN(S46:S72)</f>
+        <v>5.3851648071345</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74" s="0" t="n">
-        <f aca="false">MAX(B4:B72)</f>
-        <v>0.681283344230518</v>
+        <f aca="false">MAX(B46:B72)</f>
+        <v>0.564746917702675</v>
       </c>
       <c r="C74" s="0" t="n">
-        <f aca="false">MAX(C4:C72)</f>
+        <f aca="false">MAX(C46:C72)</f>
         <v>207.800384985206</v>
       </c>
       <c r="D74" s="0" t="n">
-        <f aca="false">MAX(D4:D72)</f>
-        <v>0.899593800445237</v>
+        <f aca="false">MAX(D46:D72)</f>
+        <v>0.369133863208065</v>
       </c>
       <c r="E74" s="0" t="n">
-        <f aca="false">MAX(E4:E72)</f>
-        <v>89.4091717890285</v>
+        <f aca="false">MAX(E46:E72)</f>
+        <v>206.799419728393</v>
       </c>
       <c r="F74" s="0" t="n">
-        <f aca="false">MAX(F4:F72)</f>
+        <f aca="false">MAX(F46:F72)</f>
+        <v>0.394429760181537</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <f aca="false">MAX(G46:G72)</f>
+        <v>201.846476313063</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <f aca="false">MAX(H46:H72)</f>
+        <v>0.888600605042458</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <f aca="false">MAX(I46:I72)</f>
+        <v>66.5807780068692</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <f aca="false">MAX(J46:J72)</f>
+        <v>0.893298365232033</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <f aca="false">MAX(K46:K72)</f>
+        <v>146.676514820881</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <f aca="false">MAX(L46:L72)</f>
+        <v>0.892599056042518</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <f aca="false">MAX(M46:M72)</f>
+        <v>122.290637417588</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <f aca="false">MAX(N46:N72)</f>
         <v>0.943557681297948</v>
       </c>
-      <c r="G74" s="0" t="n">
-        <f aca="false">MAX(G4:G72)</f>
-        <v>86.7064011477815</v>
+      <c r="O74" s="0" t="n">
+        <f aca="false">MAX(O46:O72)</f>
+        <v>66.2947961758689</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <f aca="false">MAX(P46:P72)</f>
+        <v>0.916894062072236</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <f aca="false">MAX(Q46:Q72)</f>
+        <v>150.246464184686</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <f aca="false">MAX(R46:R72)</f>
+        <v>0.917237383938497</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <f aca="false">MAX(S46:S72)</f>
+        <v>128.163957491956</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="n">
-        <f aca="false">AVERAGE(B4:B72)</f>
-        <v>0.208970721396147</v>
+        <f aca="false">AVERAGE(B46:B72)</f>
+        <v>0.215030420863562</v>
       </c>
       <c r="C75" s="0" t="n">
-        <f aca="false">AVERAGE(C4:C72)</f>
-        <v>101.018271006242</v>
+        <f aca="false">AVERAGE(C46:C72)</f>
+        <v>100.032067112302</v>
       </c>
       <c r="D75" s="2" t="n">
-        <f aca="false">AVERAGE(D4:D72)</f>
-        <v>0.81169458373824</v>
+        <f aca="false">AVERAGE(D46:D72)</f>
+        <v>0.0427559034099099</v>
       </c>
       <c r="E75" s="0" t="n">
-        <f aca="false">AVERAGE(E4:E72)</f>
-        <v>31.8479100868823</v>
+        <f aca="false">AVERAGE(E46:E72)</f>
+        <v>97.9015972377721</v>
       </c>
       <c r="F75" s="2" t="n">
-        <f aca="false">AVERAGE(F4:F72)</f>
-        <v>0.889654371788394</v>
+        <f aca="false">AVERAGE(F46:F72)</f>
+        <v>0.0596873878774018</v>
       </c>
       <c r="G75" s="0" t="n">
-        <f aca="false">AVERAGE(G4:G72)</f>
-        <v>26.4744038538739</v>
+        <f aca="false">AVERAGE(G46:G72)</f>
+        <v>96.9762498312343</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <f aca="false">AVERAGE(H46:H72)</f>
+        <v>0.805118721239095</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <f aca="false">AVERAGE(I46:I72)</f>
+        <v>31.0519791520965</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <f aca="false">AVERAGE(J46:J72)</f>
+        <v>0.58748554010976</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <f aca="false">AVERAGE(K46:K72)</f>
+        <v>30.7658223927764</v>
+      </c>
+      <c r="L75" s="2" t="n">
+        <f aca="false">AVERAGE(L46:L72)</f>
+        <v>0.637657942791569</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <f aca="false">AVERAGE(M46:M72)</f>
+        <v>28.9007749811024</v>
+      </c>
+      <c r="N75" s="2" t="n">
+        <f aca="false">AVERAGE(N46:N72)</f>
+        <v>0.886815849313545</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <f aca="false">AVERAGE(O46:O72)</f>
+        <v>26.7410136049519</v>
+      </c>
+      <c r="P75" s="2" t="n">
+        <f aca="false">AVERAGE(P46:P72)</f>
+        <v>0.67897879298535</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <f aca="false">AVERAGE(Q46:Q72)</f>
+        <v>28.2726356120705</v>
+      </c>
+      <c r="R75" s="2" t="n">
+        <f aca="false">AVERAGE(R46:R72)</f>
+        <v>0.722252796807061</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <f aca="false">AVERAGE(S46:S72)</f>
+        <v>27.4378316248491</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76" s="0" t="n">
-        <f aca="false">MEDIAN(B$4:B$72)</f>
+        <f aca="false">MEDIAN(B46:B72)</f>
         <v>0.160210641749103</v>
       </c>
       <c r="C76" s="0" t="n">
-        <f aca="false">MEDIAN(C$4:C$72)</f>
-        <v>102.083299319722</v>
+        <f aca="false">MEDIAN(C46:C72)</f>
+        <v>96.8607247546703</v>
       </c>
       <c r="D76" s="0" t="n">
-        <f aca="false">MEDIAN(D$4:D$72)</f>
-        <v>0.824522890283879</v>
+        <f aca="false">MEDIAN(D46:D72)</f>
+        <v>0</v>
       </c>
       <c r="E76" s="0" t="n">
-        <f aca="false">MEDIAN(E$4:E$72)</f>
-        <v>28.7054001888146</v>
+        <f aca="false">MEDIAN(E46:E72)</f>
+        <v>91.5641851380768</v>
       </c>
       <c r="F76" s="0" t="n">
-        <f aca="false">MEDIAN(F$4:F$72)</f>
-        <v>0.900103946018026</v>
+        <f aca="false">MEDIAN(F46:F72)</f>
+        <v>0</v>
       </c>
       <c r="G76" s="0" t="n">
-        <f aca="false">MEDIAN(G$4:G$72)</f>
-        <v>20.976176963403</v>
+        <f aca="false">MEDIAN(G46:G72)</f>
+        <v>89.6381615161757</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <f aca="false">MEDIAN(H46:H72)</f>
+        <v>0.828147133995716</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <f aca="false">MEDIAN(I46:I72)</f>
+        <v>28.1069386451104</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <f aca="false">MEDIAN(J46:J72)</f>
+        <v>0.614525624733723</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <f aca="false">MEDIAN(K46:K72)</f>
+        <v>19.3390796058137</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <f aca="false">MEDIAN(L46:L72)</f>
+        <v>0.654701575746134</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <f aca="false">MEDIAN(M46:M72)</f>
+        <v>18.2756668824971</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <f aca="false">MEDIAN(N46:N72)</f>
+        <v>0.899972508347264</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <f aca="false">MEDIAN(O46:O72)</f>
+        <v>23.5372045918796</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <f aca="false">MEDIAN(P46:P72)</f>
+        <v>0.665911064769679</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <f aca="false">MEDIAN(Q46:Q72)</f>
+        <v>14.456832294801</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <f aca="false">MEDIAN(R46:R72)</f>
+        <v>0.711561980078218</v>
+      </c>
+      <c r="S76" s="0" t="n">
+        <f aca="false">MEDIAN(S46:S72)</f>
+        <v>15.6204993518133</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(B$4:B$72)</f>
-        <v>0.190004096407743</v>
+        <f aca="false">_xlfn.STDEV.P(B46:B72)</f>
+        <v>0.18673213539501</v>
       </c>
       <c r="C77" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(C$4:C$72)</f>
-        <v>32.0265550326178</v>
+        <f aca="false">_xlfn.STDEV.P(C46:C72)</f>
+        <v>35.5068119857035</v>
       </c>
       <c r="D77" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(D$4:D$72)</f>
-        <v>0.0628851994947149</v>
+        <f aca="false">_xlfn.STDEV.P(D46:D72)</f>
+        <v>0.0912668028776025</v>
       </c>
       <c r="E77" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(E$4:E$72)</f>
-        <v>14.1093211012592</v>
+        <f aca="false">_xlfn.STDEV.P(E46:E72)</f>
+        <v>45.0848935749373</v>
       </c>
       <c r="F77" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(F$4:F$72)</f>
-        <v>0.0494155535709015</v>
+        <f aca="false">_xlfn.STDEV.P(F46:F72)</f>
+        <v>0.11517204389996</v>
       </c>
       <c r="G77" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(G$4:G$72)</f>
-        <v>14.9677478871696</v>
+        <f aca="false">_xlfn.STDEV.P(G46:G72)</f>
+        <v>44.0359231108602</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(H46:H72)</f>
+        <v>0.076656277789664</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(I46:I72)</f>
+        <v>12.3121649417386</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(J46:J72)</f>
+        <v>0.190537753787512</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(K46:K72)</f>
+        <v>29.5650774077418</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(L46:L72)</f>
+        <v>0.166958516991912</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(M46:M72)</f>
+        <v>26.0449188534785</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(N46:N72)</f>
+        <v>0.0600011594594095</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(O46:O72)</f>
+        <v>13.6731572219739</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(P46:P72)</f>
+        <v>0.179438297159479</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(Q46:Q72)</f>
+        <v>31.0165834017458</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(R46:R72)</f>
+        <v>0.159787556947829</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(S46:S72)</f>
+        <v>27.4775771780971</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="12">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
